--- a/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesHumanas.xlsx
+++ b/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesHumanas.xlsx
@@ -447,20 +447,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>

--- a/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesHumanas.xlsx
+++ b/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesHumanas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>FICHA</t>
   </si>
@@ -70,15 +70,9 @@
     <t>PAGADO</t>
   </si>
   <si>
-    <t>MUESTRA</t>
-  </si>
-  <si>
     <t>FECHA RECEPCION</t>
   </si>
   <si>
-    <t>FECHA RESULTADOS</t>
-  </si>
-  <si>
     <t>RUT</t>
   </si>
   <si>
@@ -107,13 +101,25 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>EXAMEN 9</t>
+  </si>
+  <si>
+    <t>VALOR 9</t>
+  </si>
+  <si>
+    <t>RECEPCION</t>
+  </si>
+  <si>
+    <t>HORA RECEPCION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +127,317 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -138,15 +445,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,111 +942,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
